--- a/Documents/Material/sources.xlsx
+++ b/Documents/Material/sources.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,12 +13,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>https://www.audioblocks.com/stock-audio/running-man-breathing.html</t>
+  </si>
+  <si>
+    <t>Running Man Breathing</t>
+  </si>
+  <si>
+    <t>unhealthy cough</t>
+  </si>
+  <si>
+    <t>https://www.audioblocks.com/stock-audio/male-unhealthy-cough-3-sound-effect.html</t>
+  </si>
+  <si>
+    <t>https://www.audioblocks.com/stock-audio/slow-breathing-panic-attack.html</t>
+  </si>
+  <si>
+    <t>Slow Breathing Panic</t>
+  </si>
+  <si>
+    <t>https://www.audioblocks.com/stock-audio/woman-scared-breathing.html</t>
+  </si>
+  <si>
+    <t>Woman Scared Breathing</t>
+  </si>
+  <si>
+    <t>Panic</t>
+  </si>
+  <si>
+    <t>http://www.soundsnap.com/scream_japanese</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF616161"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -41,17 +91,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +405,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Documents/Material/sources.xlsx
+++ b/Documents/Material/sources.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Audio" sheetId="1" r:id="rId1"/>
+    <sheet name="News" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://www.audioblocks.com/stock-audio/running-man-breathing.html</t>
   </si>
@@ -44,13 +45,37 @@
   </si>
   <si>
     <t>http://www.soundsnap.com/scream_japanese</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/world-europe-35277249</t>
+  </si>
+  <si>
+    <t>Cologne attacks: New Year's Eve crime cases top 500</t>
+  </si>
+  <si>
+    <t>http://www.npr.org/sections/thetwo-way/2016/01/10/462558773/night-of-shame-week-of-soul-searching-cologne-attacks-divide-germany</t>
+  </si>
+  <si>
+    <t>'Night Of Shame,' Week Of Soul-Searching: Cologne Attacks Divide Germany</t>
+  </si>
+  <si>
+    <t>Germany shocked by Cologne New Year gang assaults on women</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/world-europe-35231046</t>
+  </si>
+  <si>
+    <t>http://10news.dk/?p=553</t>
+  </si>
+  <si>
+    <t>Sexual abuse widespread among Muslims</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +97,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,12 +132,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -408,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,4 +513,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/Material/sources.xlsx
+++ b/Documents/Material/sources.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Audio" sheetId="1" r:id="rId1"/>
-    <sheet name="News" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="News" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>https://www.audioblocks.com/stock-audio/running-man-breathing.html</t>
   </si>
@@ -69,6 +70,33 @@
   </si>
   <si>
     <t>Sexual abuse widespread among Muslims</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9Elem7z8yVw</t>
+  </si>
+  <si>
+    <t>Polic Siren</t>
+  </si>
+  <si>
+    <t>https://www.freesound.org/people/inchadney/sounds/39496/</t>
+  </si>
+  <si>
+    <t>City Traffic</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JVwqumtd6vU</t>
+  </si>
+  <si>
+    <t>Rain &amp; Thunder</t>
+  </si>
+  <si>
+    <t>https://www.sounddogs.com/results.asp?Type=1&amp;CategoryID=1023&amp;SubcategoryID=48</t>
+  </si>
+  <si>
+    <t>Step on Water</t>
   </si>
 </sst>
 </file>
@@ -450,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +530,38 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
@@ -509,17 +569,44 @@
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
     <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Material/sources.xlsx
+++ b/Documents/Material/sources.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Audio" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Credit" sheetId="3" r:id="rId2"/>
     <sheet name="News" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>https://www.audioblocks.com/stock-audio/running-man-breathing.html</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>City Traffic</t>
-  </si>
-  <si>
-    <t>Credit</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JVwqumtd6vU</t>
@@ -481,7 +478,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,18 +545,18 @@
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -583,21 +580,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
